--- a/Facebook/Volumenes_totales.xlsx
+++ b/Facebook/Volumenes_totales.xlsx
@@ -873,16 +873,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44618</v>
+        <v>44611</v>
       </c>
       <c r="B22" t="n">
-        <v>35204</v>
+        <v>39710</v>
       </c>
       <c r="C22" t="n">
-        <v>1608</v>
+        <v>1801</v>
       </c>
       <c r="D22" t="n">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="E22" t="n">
         <v>55</v>
@@ -913,16 +913,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44611</v>
+        <v>44675</v>
       </c>
       <c r="B24" t="n">
-        <v>39710</v>
+        <v>2579</v>
       </c>
       <c r="C24" t="n">
-        <v>1801</v>
+        <v>87</v>
       </c>
       <c r="D24" t="n">
-        <v>397</v>
+        <v>315</v>
       </c>
       <c r="E24" t="n">
         <v>55</v>
@@ -953,16 +953,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44675</v>
+        <v>44618</v>
       </c>
       <c r="B26" t="n">
-        <v>2579</v>
+        <v>35204</v>
       </c>
       <c r="C26" t="n">
-        <v>87</v>
+        <v>1608</v>
       </c>
       <c r="D26" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E26" t="n">
         <v>55</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44647</v>
+        <v>44663</v>
       </c>
       <c r="B57" t="n">
-        <v>8575</v>
+        <v>4941</v>
       </c>
       <c r="C57" t="n">
-        <v>392</v>
+        <v>217</v>
       </c>
       <c r="D57" t="n">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="E57" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F57" t="n">
         <v>14</v>
@@ -1593,19 +1593,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44663</v>
+        <v>44647</v>
       </c>
       <c r="B58" t="n">
-        <v>4941</v>
+        <v>8575</v>
       </c>
       <c r="C58" t="n">
-        <v>217</v>
+        <v>392</v>
       </c>
       <c r="D58" t="n">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="E58" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F58" t="n">
         <v>14</v>
@@ -1613,16 +1613,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44608</v>
+        <v>44674</v>
       </c>
       <c r="B59" t="n">
-        <v>20862</v>
+        <v>1805</v>
       </c>
       <c r="C59" t="n">
-        <v>944</v>
+        <v>75</v>
       </c>
       <c r="D59" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E59" t="n">
         <v>27</v>
@@ -1633,16 +1633,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44674</v>
+        <v>44608</v>
       </c>
       <c r="B60" t="n">
-        <v>1805</v>
+        <v>20862</v>
       </c>
       <c r="C60" t="n">
-        <v>75</v>
+        <v>944</v>
       </c>
       <c r="D60" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E60" t="n">
         <v>27</v>
@@ -1653,16 +1653,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44677</v>
+        <v>44660</v>
       </c>
       <c r="B61" t="n">
-        <v>1193</v>
+        <v>4940</v>
       </c>
       <c r="C61" t="n">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D61" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E61" t="n">
         <v>25</v>
@@ -1673,16 +1673,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44660</v>
+        <v>44673</v>
       </c>
       <c r="B62" t="n">
-        <v>4940</v>
+        <v>2930</v>
       </c>
       <c r="C62" t="n">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="D62" t="n">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="E62" t="n">
         <v>25</v>
@@ -1693,16 +1693,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44673</v>
+        <v>44677</v>
       </c>
       <c r="B63" t="n">
-        <v>2930</v>
+        <v>1193</v>
       </c>
       <c r="C63" t="n">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="D63" t="n">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="E63" t="n">
         <v>25</v>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44654</v>
+        <v>44598</v>
       </c>
       <c r="B70" t="n">
-        <v>4635</v>
+        <v>16585</v>
       </c>
       <c r="C70" t="n">
-        <v>220</v>
+        <v>760</v>
       </c>
       <c r="D70" t="n">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E70" t="n">
         <v>19</v>
@@ -1853,16 +1853,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44598</v>
+        <v>44606</v>
       </c>
       <c r="B71" t="n">
-        <v>16585</v>
+        <v>15565</v>
       </c>
       <c r="C71" t="n">
-        <v>760</v>
+        <v>704</v>
       </c>
       <c r="D71" t="n">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="E71" t="n">
         <v>19</v>
@@ -1873,16 +1873,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44606</v>
+        <v>44654</v>
       </c>
       <c r="B72" t="n">
-        <v>15565</v>
+        <v>4635</v>
       </c>
       <c r="C72" t="n">
-        <v>704</v>
+        <v>220</v>
       </c>
       <c r="D72" t="n">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="E72" t="n">
         <v>19</v>
